--- a/public/report_templates/operations_report.xlsx
+++ b/public/report_templates/operations_report.xlsx
@@ -19,30 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>شماره</t>
   </si>
   <si>
-    <t>جنس</t>
+    <t>راپور عملیات</t>
   </si>
   <si>
-    <t>تعداد</t>
+    <t>نام مریض</t>
   </si>
   <si>
-    <t>راپور جمع و قید اجناس</t>
+    <t>جراح عملیات</t>
   </si>
   <si>
-    <t>اسم</t>
+    <t>حالت عملیات</t>
   </si>
   <si>
-    <t>اسم پدر</t>
+    <t>تائیدی عملیات</t>
   </si>
   <si>
-    <t>شماره کارت</t>
+    <t>حالت ریزرف</t>
   </si>
   <si>
-    <t>توضیحات</t>
+    <t>نوعیت عملیات</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>ساعت</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -109,17 +115,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,41 +468,49 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -461,8 +518,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -470,8 +529,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -479,8 +540,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -488,8 +551,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -497,8 +562,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -506,8 +573,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -515,8 +584,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -524,8 +595,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -533,8 +606,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -542,8 +617,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -551,8 +628,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -560,8 +639,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -569,8 +650,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -578,8 +661,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -587,8 +672,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -596,8 +683,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -605,8 +694,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -614,8 +705,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -623,8 +716,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -632,8 +727,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -641,8 +738,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -650,8 +749,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -659,8 +760,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -668,8 +771,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -677,8 +782,10 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -686,8 +793,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -695,8 +804,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -704,8 +815,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -713,8 +826,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -722,8 +837,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -731,8 +848,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -740,8 +859,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -749,8 +870,10 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -758,8 +881,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -767,8 +892,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -776,8 +903,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -785,8 +914,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -794,8 +925,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -803,8 +936,10 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -812,8 +947,10 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -821,8 +958,10 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -830,8 +969,10 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -839,8 +980,10 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -848,8 +991,10 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -857,8 +1002,10 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -866,8 +1013,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -875,8 +1024,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -884,8 +1035,10 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -893,8 +1046,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -902,8 +1057,10 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -911,8 +1068,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -920,8 +1079,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -929,8 +1090,10 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -938,8 +1101,10 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -947,8 +1112,10 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -956,8 +1123,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -965,8 +1134,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -974,8 +1145,10 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -983,8 +1156,10 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -992,8 +1167,10 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1001,8 +1178,10 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1010,8 +1189,10 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1019,8 +1200,10 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1028,8 +1211,10 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1037,8 +1222,10 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1046,8 +1233,10 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1055,8 +1244,10 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1064,8 +1255,10 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1073,8 +1266,10 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1082,8 +1277,10 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1091,8 +1288,10 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1100,8 +1299,10 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1109,8 +1310,10 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1118,8 +1321,10 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1127,8 +1332,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1136,8 +1343,10 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1145,8 +1354,10 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1154,8 +1365,10 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1163,8 +1376,10 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1172,8 +1387,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1181,8 +1398,10 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1190,8 +1409,10 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1199,8 +1420,10 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1208,8 +1431,10 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1217,8 +1442,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1226,8 +1453,10 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1235,8 +1464,10 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1244,8 +1475,10 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1253,8 +1486,10 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1262,8 +1497,10 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1271,8 +1508,10 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1280,8 +1519,10 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1289,8 +1530,10 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1298,8 +1541,10 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1307,8 +1552,10 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1316,8 +1563,10 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1325,8 +1574,10 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1334,8 +1585,10 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1343,8 +1596,10 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1352,8 +1607,10 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1361,8 +1618,10 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1370,8 +1629,10 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1379,8 +1640,10 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1388,8 +1651,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1397,8 +1662,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1406,8 +1673,10 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1415,8 +1684,10 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1424,8 +1695,10 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1433,8 +1706,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1442,10 +1717,12 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
